--- a/results/worldbank.xlsx
+++ b/results/worldbank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,191 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>tanzania food systems resilience program</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Request for expression of interest</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Eastern and southern africa</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25-jun-2024</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>provision of consultancy service for the establishment of irrigations, management and maintenance agreements for the food and resilience program in tanzania.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['agricultural extension, research, and other support activities', 'irrigation and drainage', 'public administration - agriculture, fishing &amp; forestry', 'agricultural markets, commercialization and agri-business', 'other agriculture, fishing and forestry']</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://projects.worldbank.org/en/projects-operations/procurement-detail/OP00294451</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>car-electricity sector strengthening and access project</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Request for expression of interest</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Western and central africa</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>24-jun-2024</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>agence de vérification - recrutement d'une agence de vérification indépendante</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['energy transmission and distribution', 'renewable energy solar', 'public administration - energy and extractives']</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://projects.worldbank.org/en/projects-operations/procurement-detail/OP00297368</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>liberia sustainable management of fisheries project</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Request for expression of interest</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Western and central africa</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>25-jun-2024</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>consultancy services to conduct geotechnical studies, detailed design ,and supervision of mesurado industrial &amp; artisanal landing facilities and other fisheries infrastructures</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['fisheries', 'public administration - agriculture, fishing &amp; forestry']</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://projects.worldbank.org/en/projects-operations/procurement-detail/OP00297759</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ghana digital acceleration project</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Request for expression of interest</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Western and central africa</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>25-jun-2024</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>technical and transaction advisory services to design and implement ppp projects for broadband in rural ghana</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['ict services', 'public administration - information and communications technologies', 'ict infrastructure']</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://projects.worldbank.org/en/projects-operations/procurement-detail/OP00297678</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>eastern africa regional digital integration project</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Request for expression of interest</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Eastern and southern africa</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>25-jun-2024</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>consultancy services to devolop an implementation plan to establish a regional information sharing and analysis center (isac) for the intergovernmental authority on development (igad)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['ict infrastructure', 'public administration - information and communications technologies', 'ict services']</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://projects.worldbank.org/en/projects-operations/procurement-detail/OP00297664</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
